--- a/xlsx/复活节_intext.xlsx
+++ b/xlsx/复活节_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
   <si>
     <t>复活节</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>正教會</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_复活节</t>
+    <t>正教会</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_复活节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%BE%A9%E6%B4%BB</t>
   </si>
   <si>
-    <t>耶穌復活</t>
+    <t>耶稣复活</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resurrection_of_Jesus_in_Christian_art</t>
@@ -215,31 +215,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>節日</t>
+    <t>节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>猶太人</t>
+    <t>犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%BE%E8%B6%8A%E7%AF%80</t>
   </si>
   <si>
-    <t>逾越節</t>
+    <t>逾越节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%B0%BC%E8%A5%BF%E4%BA%9E%E5%A4%A7%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第一次尼西亞大公會議</t>
+    <t>第一次尼西亚大公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%9B%86</t>
   </si>
   <si>
-    <t>猶太曆</t>
+    <t>犹太历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E5%88%86</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E5%9C%93</t>
   </si>
   <si>
-    <t>月圓</t>
+    <t>月圆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%9F%BA%E7%9D%A3</t>
   </si>
   <si>
-    <t>耶穌基督</t>
+    <t>耶稣基督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E9%87%98%E6%AD%BB</t>
   </si>
   <si>
-    <t>耶穌釘死</t>
+    <t>耶稣钉死</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A8%A3%E7%9A%84%E5%A4%8D%E6%B4%BB</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E7%AF%80%E6%97%A5%E6%9C%9F%E7%88%AD%E8%AB%96</t>
   </si>
   <si>
-    <t>復活節日期爭論</t>
+    <t>复活节日期争论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>教會</t>
+    <t>教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%95%A3%E6%9C%88</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%9E%97%E5%A4%9A%E5%89%8D%E6%9B%B8</t>
   </si>
   <si>
-    <t>哥林多前書</t>
+    <t>哥林多前书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E7%9A%87%E5%B8%9D</t>
   </si>
   <si>
-    <t>羅馬皇帝</t>
+    <t>罗马皇帝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81%E4%B8%80%E4%B8%96</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%B0%BC%E8%A5%BF%E4%BA%9E%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第一次尼西亞公會議</t>
+    <t>第一次尼西亚公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/3%E6%9C%8821%E6%97%A5</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E7%AF%80%E8%A8%88%E7%AE%97%E8%A1%A8%E5%86%8A</t>
   </si>
   <si>
-    <t>復活節計算表冊</t>
+    <t>复活节计算表册</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E6%96%87</t>
@@ -341,13 +341,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>羅馬天主教會</t>
+    <t>罗马天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E6%AD%A3%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>東方正教會</t>
+    <t>东方正教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1997%E5%B9%B4</t>
@@ -359,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%99%AE%E4%B8%96%E6%95%99%E6%9C%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>國際普世教會協會</t>
+    <t>国际普世教会协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
+    <t>叙利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -377,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>天主教會</t>
+    <t>天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%8C%E6%92%92</t>
   </si>
   <si>
-    <t>彌撒</t>
+    <t>弥撒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E6%B4%BB%E8%8A%82%E5%85%94</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%8F%AF%E5%B8%83%C2%B7%E7%BD%97%E8%B5%AB%E8%8A%AC</t>
@@ -461,19 +461,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E7%AF%80%E5%B3%B6</t>
   </si>
   <si>
-    <t>復活節島</t>
+    <t>复活节岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%BA%AB%E5%85%8B</t>
   </si>
   <si>
-    <t>詹姆斯·庫克</t>
+    <t>詹姆斯·库克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B8%95%E5%8A%AA%E4%BC%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>拉帕努伊島</t>
+    <t>拉帕努伊岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%BA%AA%E5%9C%B0</t>
@@ -485,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%80%B1</t>
   </si>
   <si>
-    <t>聖週</t>
+    <t>圣周</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%98%8E</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%92%92%E8%B7%AF%E8%81%96%E9%80%B1%E5%85%AD</t>
   </si>
   <si>
-    <t>拉撒路聖週六</t>
+    <t>拉撒路圣周六</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%9E%9D%E4%B8%BB%E6%97%A5</t>
@@ -521,27 +521,24 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%AF%E8%B6%B3%E7%AF%80</t>
   </si>
   <si>
-    <t>濯足節</t>
+    <t>濯足节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8F%97%E9%9B%A3%E7%AF%80</t>
   </si>
   <si>
-    <t>耶穌受難節</t>
+    <t>耶稣受难节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E5%89%8D%E5%A4%95</t>
   </si>
   <si>
-    <t>復活前夕</t>
+    <t>复活前夕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E4%BC%9A</t>
   </si>
   <si>
-    <t>天主教会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E4%BC%9A%E5%B9%B4%E5%8E%86</t>
   </si>
   <si>
@@ -551,19 +548,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99%E8%81%96%E4%BA%BA%E6%9B%86</t>
   </si>
   <si>
-    <t>羅馬天主教聖人曆</t>
+    <t>罗马天主教圣人历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%87%E8%87%A8%E6%9C%9F</t>
   </si>
   <si>
-    <t>將臨期</t>
+    <t>将临期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AF%8D%E7%84%A1%E6%9F%93%E5%8E%9F%E7%BD%AA%E7%9E%BB%E7%A6%AE</t>
   </si>
   <si>
-    <t>聖母無染原罪瞻禮</t>
+    <t>圣母无染原罪瞻礼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Christmastide</t>
@@ -593,13 +590,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E4%B9%8B%E6%AF%8D%E7%AF%80</t>
   </si>
   <si>
-    <t>天主之母節</t>
+    <t>天主之母节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E9%A1%AF%E7%AF%80</t>
   </si>
   <si>
-    <t>主顯節</t>
+    <t>主显节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E5%B9%B4%E6%9C%9F</t>
@@ -617,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8B%A5%E7%91%9F%E7%9E%BB%E7%A6%AE</t>
   </si>
   <si>
-    <t>聖若瑟瞻禮</t>
+    <t>圣若瑟瞻礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%AF%8D%E9%A2%86%E6%8A%A5</t>
@@ -629,51 +626,45 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8B%82%E6%AD%A1%E7%AF%80</t>
   </si>
   <si>
-    <t>狂歡節</t>
+    <t>狂欢节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BD%8B%E6%9C%9F</t>
   </si>
   <si>
-    <t>大齋期</t>
+    <t>大斋期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BD%8B%E9%A6%96%E6%97%A5</t>
   </si>
   <si>
-    <t>大齋首日</t>
+    <t>大斋首日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%91%A8</t>
   </si>
   <si>
-    <t>圣周</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%BE%E8%B6%8A%E7%AF%80%E4%B8%89%E6%97%A5%E6%85%B6%E5%85%B8</t>
   </si>
   <si>
-    <t>逾越節三日慶典</t>
+    <t>逾越节三日庆典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E7%9A%84%E6%99%9A%E9%A4%90%E5%BD%8C%E6%92%92</t>
   </si>
   <si>
-    <t>主的晚餐彌撒</t>
+    <t>主的晚餐弥撒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%80%B1%E4%BA%94</t>
   </si>
   <si>
-    <t>聖週五</t>
+    <t>圣周五</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A5%E6%92%92</t>
   </si>
   <si>
-    <t>弥撒</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A6%E8%B7%AF</t>
   </si>
   <si>
@@ -683,13 +674,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A4%90%E7%A6%AE</t>
   </si>
   <si>
-    <t>聖餐禮</t>
+    <t>圣餐礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%80%B1%E5%85%AD</t>
   </si>
   <si>
-    <t>聖週六</t>
+    <t>圣周六</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eastertide</t>
@@ -701,61 +692,58 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A8%A3%E5%A4%8D%E6%B4%BB</t>
   </si>
   <si>
-    <t>耶稣复活</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8D%87%E5%A4%A9%E7%AF%80</t>
   </si>
   <si>
-    <t>耶穌升天節</t>
+    <t>耶稣升天节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%97%AC%E7%AF%80</t>
   </si>
   <si>
-    <t>五旬節</t>
+    <t>五旬节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%B8%89%E4%B8%80%E4%B8%BB%E6%97%A5</t>
   </si>
   <si>
-    <t>聖三一主日</t>
+    <t>圣三一主日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E8%81%96%E9%AB%94%E8%81%96%E8%A1%80%E7%AF%80</t>
   </si>
   <si>
-    <t>基督聖體聖血節</t>
+    <t>基督圣体圣血节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E8%81%96%E5%BF%83</t>
   </si>
   <si>
-    <t>耶穌聖心</t>
+    <t>耶稣圣心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AF%8D%E8%A8%AA%E8%A6%AA</t>
   </si>
   <si>
-    <t>聖母訪親</t>
+    <t>圣母访亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AF%8D%E8%92%99%E5%8F%AC%E5%8D%87%E5%A4%A9%E7%AF%80</t>
   </si>
   <si>
-    <t>聖母蒙召升天節</t>
+    <t>圣母蒙召升天节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%B8%E8%81%96%E7%AF%80</t>
   </si>
   <si>
-    <t>諸聖節</t>
+    <t>诸圣节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%B8%E9%9D%88%E7%AF%80</t>
   </si>
   <si>
-    <t>諸靈節</t>
+    <t>诸灵节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%99%AE%E4%B8%96%E5%90%9B%E7%8E%8B%E8%8A%82</t>
@@ -773,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -785,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E7%AF%80</t>
@@ -3688,7 +3676,7 @@
         <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -3714,10 +3702,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -3743,10 +3731,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3772,10 +3760,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -3801,10 +3789,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3830,10 +3818,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3859,10 +3847,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3888,10 +3876,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3917,10 +3905,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3946,10 +3934,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3975,10 +3963,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4004,10 +3992,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4033,10 +4021,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4062,10 +4050,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4091,10 +4079,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4120,10 +4108,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4149,10 +4137,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4178,10 +4166,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4207,10 +4195,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="G106" t="n">
         <v>5</v>
@@ -4294,10 +4282,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4323,10 +4311,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4352,10 +4340,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4381,10 +4369,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4410,10 +4398,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4439,10 +4427,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4468,10 +4456,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4497,10 +4485,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4526,10 +4514,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4555,10 +4543,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4584,10 +4572,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4613,10 +4601,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4642,10 +4630,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4671,10 +4659,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4700,10 +4688,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4729,10 +4717,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4758,10 +4746,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4787,10 +4775,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4816,10 +4804,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4845,10 +4833,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4874,10 +4862,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -4903,10 +4891,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4932,10 +4920,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4961,10 +4949,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>6</v>
@@ -4990,10 +4978,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
